--- a/pythonProject1/LeetcodeDaylog (version 1).xlsb.xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1).xlsb.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69F77279-B51C-4C04-9A5D-4A3AC8653BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B95DBD8-C6D7-40E4-B325-FF1F882F84A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>date\level</t>
+  </si>
+  <si>
+    <t>heap</t>
   </si>
 </sst>
 </file>
@@ -372,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,10 +512,28 @@
       <c r="F6">
         <v>94</v>
       </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+      <c r="I6">
+        <v>111</v>
+      </c>
+      <c r="J6">
+        <v>112</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44655</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">

--- a/pythonProject1/LeetcodeDaylog (version 1).xlsb.xlsx
+++ b/pythonProject1/LeetcodeDaylog (version 1).xlsb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mingzhu\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B95DBD8-C6D7-40E4-B325-FF1F882F84A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F89A0D5-7FB7-4C87-ACFC-446898B6776B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -375,7 +376,7 @@
   <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,15 +536,48 @@
       <c r="C7" t="s">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>204</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44656</v>
       </c>
+      <c r="B8">
+        <v>204</v>
+      </c>
+      <c r="C8">
+        <v>1878</v>
+      </c>
+      <c r="D8">
+        <v>445</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44657</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
